--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_balgas_training.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_balgas_training.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1657,40 +1657,50 @@
       </c>
     </row>
     <row r="80">
-      <c r="D80" t="inlineStr">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>scene4_transmission</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>scene4_transmission</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="D82" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] TODO: バルガス訓練戦闘 - 満足度システム");</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>scene4_transmission</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>scene4_transmission</t>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sacred_Triumph_Special");             var data = SoundManager.current.GetData("BGM/Emotional_Sacred_Triumph_Special");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sacred_Triumph_Special");             }</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sacred_Triumph_Special");             var data = SoundManager.current.GetData("BGM/Emotional_Sacred_Triumph_Special");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sacred_Triumph_Special");             }</t>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>narr_11</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>（息を切らし、膝をつくあなた。）</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>（息を切らし、膝をつくあなた。）</t>
         </is>
       </c>
     </row>
@@ -1702,17 +1712,17 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>narr_11</t>
+          <t>narr_12</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>（息を切らし、膝をつくあなた。）</t>
+          <t>（バルガスは一歩も動いていないが、その口元には満足げな笑みが浮かんでいた。）</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>（息を切らし、膝をつくあなた。）</t>
+          <t>（バルガスは一歩も動いていないが、その口元には満足げな笑みが浮かんでいた。）</t>
         </is>
       </c>
     </row>
@@ -1724,82 +1734,82 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>narr_12</t>
+          <t>narr_13</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>（バルガスは一歩も動いていないが、その口元には満足げな笑みが浮かんでいた。）</t>
+          <t>（彼はあなたの肩を、岩のような拳で一つ叩いた。）</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>（バルガスは一歩も動いていないが、その口元には満足げな笑みが浮かんでいた。）</t>
+          <t>（彼はあなたの肩を、岩のような拳で一つ叩いた。）</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>narr_13</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>（彼はあなたの肩を、岩のような拳で一つ叩いた。）</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>（彼はあなたの肩を、岩のような拳で一つ叩いた。）</t>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="D87" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="D88" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="D89" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>balgas_11</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>……ハッ！ 少しは『意志』が剣に乗るようになったじゃねえか。</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>……ハッ！ 少しは『意志』が剣に乗るようになったじゃねえか。</t>
         </is>
       </c>
     </row>
@@ -1811,17 +1821,17 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>balgas_11</t>
+          <t>balgas_12</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>……ハッ！ 少しは『意志』が剣に乗るようになったじゃねえか。</t>
+          <t>いいか、戦いってのはな、ただの殺し合いじゃねえ。</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>……ハッ！ 少しは『意志』が剣に乗るようになったじゃねえか。</t>
+          <t>いいか、戦いってのはな、ただの殺し合いじゃねえ。</t>
         </is>
       </c>
     </row>
@@ -1833,17 +1843,17 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>balgas_12</t>
+          <t>balgas_13</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>いいか、戦いってのはな、ただの殺し合いじゃねえ。</t>
+          <t>自分の命を、何のために『消費』するかを決める聖域だ。</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>いいか、戦いってのはな、ただの殺し合いじゃねえ。</t>
+          <t>自分の命を、何のために『消費』するかを決める聖域だ。</t>
         </is>
       </c>
     </row>
@@ -1855,97 +1865,97 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>balgas_13</t>
+          <t>balgas_14</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>自分の命を、何のために『消費』するかを決める聖域だ。</t>
+          <t>その哲学を忘れるな。そうすれば、どんな異次元の闇もお前を呑み込むことはできねえ。</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>自分の命を、何のために『消費』するかを決める聖域だ。</t>
+          <t>その哲学を忘れるな。そうすれば、どんな異次元の闇もお前を呑み込むことはできねえ。</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="F94" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>balgas_14</t>
+          <t>narr_14</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>その哲学を忘れるな。そうすれば、どんな異次元の闇もお前を呑み込むことはできねえ。</t>
+          <t>（ロビーに戻ると、リリィが台帳を開いて待っている。）</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>その哲学を忘れるな。そうすれば、どんな異次元の闇もお前を呑み込むことはできねえ。</t>
+          <t>（ロビーに戻ると、リリィが台帳を開いて待っている。）</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>narr_14</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>（ロビーに戻ると、リリィが台帳を開いて待っている。）</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>（ロビーに戻ると、リリィが台帳を開いて待っている。）</t>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="D96" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="D97" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="F98" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-    </row>
-    <row r="98">
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>lily_4</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>……素晴らしい。バルガスさんの説教を聞いて生き残るなんて、あなたは本当の意味で『闘技場の鴉』になる資格を得たようです。</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>……素晴らしい。バルガスさんの説教を聞いて生き残るなんて、あなたは本当の意味で『闘技場の鴉』になる資格を得たようです。</t>
         </is>
       </c>
     </row>
@@ -1957,97 +1967,102 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>lily_4</t>
+          <t>lily_5</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>……素晴らしい。バルガスさんの説教を聞いて生き残るなんて、あなたは本当の意味で『闘技場の鴉』になる資格を得たようです。</t>
+          <t>カラスは死肉を喰らい、戦場を飛び回る。……今のあなたに、相応しい二つ名ですね。</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>……素晴らしい。バルガスさんの説教を聞いて生き残るなんて、あなたは本当の意味で『闘技場の鴉』になる資格を得たようです。</t>
+          <t>カラスは死肉を喰らい、戦場を飛び回る。……今のあなたに、相応しい二つ名ですね。</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="F100" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>lily_5</t>
+          <t>narr_15</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>カラスは死肉を喰らい、戦場を飛び回る。……今のあなたに、相応しい二つ名ですね。</t>
+          <t>（彼女は台帳に何かを書き込む。）</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>カラスは死肉を喰らい、戦場を飛び回る。……今のあなたに、相応しい二つ名ですね。</t>
+          <t>（彼女は台帳に何かを書き込む。）</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="F101" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>narr_15</t>
+          <t>lily_6</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>（彼女は台帳に何かを書き込む。）</t>
+          <t>観客からの報酬として、小さなコイン12枚とプラチナコイン5枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>（彼女は台帳に何かを書き込む。）</t>
+          <t>観客からの報酬として、小さなコイン12枚とプラチナコイン5枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>lily_6</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>観客からの報酬として、小さなコイン12枚とプラチナコイン5枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>観客からの報酬として、小さなコイン12枚とプラチナコイン5枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>reward_choice</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>reward_choice</t>
+          <t>reward_stone</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>c_reward_stone</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>研磨石を頼む</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>研磨石を頼む</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>reward_stone</t>
+          <t>reward_steel</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2057,234 +2072,229 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>c_reward_stone</t>
+          <t>c_reward_steel</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>研磨石を頼む</t>
+          <t>鋼鉄の欠片が欲しい</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>研磨石を頼む</t>
+          <t>鋼鉄の欠片が欲しい</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
+          <t>reward_bone</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>c_reward_bone</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>骨を選ぶ</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>骨を選ぶ</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>reward_stone</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>lily_rew1</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>『研磨石×1』、記録いたしました。バルガスさんの哲学を継ぐ、良い選択ですね。</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>『研磨石×1』、記録いたしました。バルガスさんの哲学を継ぐ、良い選択ですね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>EClass.pc.Pick(ThingGen.Create("whetstone"));</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>reward_end</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
           <t>reward_steel</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>c_reward_steel</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>鋼鉄の欠片が欲しい</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>鋼鉄の欠片が欲しい</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="B106" t="inlineStr">
+    </row>
+    <row r="111">
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>lily_rew2</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>『鋼鉄の欠片×1』、記録いたしました。</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>『鋼鉄の欠片×1』、記録いたしました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>EClass.pc.Pick(ThingGen.Create("steel"));</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>reward_end</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>reward_bone</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>c_reward_bone</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>骨を選ぶ</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>骨を選ぶ</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>reward_stone</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="F108" t="inlineStr">
+    </row>
+    <row r="115">
+      <c r="F115" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>lily_rew1</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>『研磨石×1』、記録いたしました。バルガスさんの哲学を継ぐ、良い選択ですね。</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>『研磨石×1』、記録いたしました。バルガスさんの哲学を継ぐ、良い選択ですね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="D109" t="inlineStr">
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>lily_rew3</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>『骨×1』ですね。……地味ですが、実用的です。</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>『骨×1』ですね。……地味ですが、実用的です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="D116" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("whetstone"));</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="B110" t="inlineStr">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>EClass.pc.Pick(ThingGen.Create("bone"));</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="inlineStr">
         <is>
           <t>reward_end</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>reward_steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="F112" t="inlineStr">
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>reward_end</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>for(int i=0; i&lt;12; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;5; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="F120" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>lily_rew2</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>『鋼鉄の欠片×1』、記録いたしました。</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>『鋼鉄の欠片×1』、記録いたしました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("steel"));</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>reward_bone</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>lily_rew3</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>『骨×1』ですね。……地味ですが、実用的です。</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>『骨×1』ですね。……地味ですが、実用的です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("bone"));</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>for(int i=0; i&lt;12; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;5; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>lily_7</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>記録完了です。</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>記録完了です。</t>
         </is>
       </c>
     </row>
@@ -2296,17 +2306,17 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>lily_7</t>
+          <t>lily_8</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>記録完了です。</t>
+          <t>……それと、今回の戦いで、あなたは『闘技場の鴉』としての称号を獲得しました。</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>記録完了です。</t>
+          <t>……それと、今回の戦いで、あなたは『闘技場の鴉』としての称号を獲得しました。</t>
         </is>
       </c>
     </row>
@@ -2318,97 +2328,97 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>lily_8</t>
+          <t>lily_9</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>……それと、今回の戦いで、あなたは『闘技場の鴉』としての称号を獲得しました。</t>
+          <t>死肉を喰らい、戦場を飛び回る……ふふ、あなたらしいですね。</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>……それと、今回の戦いで、あなたは『闘技場の鴉』としての称号を獲得しました。</t>
+          <t>死肉を喰らい、戦場を飛び回る……ふふ、あなたらしいですね。</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="F123" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>lily_9</t>
+          <t>narr_16</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>死肉を喰らい、戦場を飛び回る……ふふ、あなたらしいですね。</t>
+          <t>（バルガスが酒瓶を傾けながら、あなたに背を向けたまま言う。）</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>死肉を喰らい、戦場を飛び回る……ふふ、あなたらしいですね。</t>
+          <t>（バルガスが酒瓶を傾けながら、あなたに背を向けたまま言う。）</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>narr_16</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>（バルガスが酒瓶を傾けながら、あなたに背を向けたまま言う。）</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>（バルガスが酒瓶を傾けながら、あなたに背を向けたまま言う。）</t>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="D125" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="D126" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>balgas_15</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>……お前は、カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>……お前は、カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
         </is>
       </c>
     </row>
@@ -2420,17 +2430,17 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>balgas_15</t>
+          <t>balgas_16</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>……お前は、カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
+          <t>俺がかつて率いていた『英雄の軍団』にも、お前みたいな奴がいた。</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>……お前は、カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
+          <t>俺がかつて率いていた『英雄の軍団』にも、お前みたいな奴がいた。</t>
         </is>
       </c>
     </row>
@@ -2442,61 +2452,61 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>balgas_16</t>
+          <t>balgas_17</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>俺がかつて率いていた『英雄の軍団』にも、お前みたいな奴がいた。</t>
+          <t>……あいつも、最後まで哲学を曲げなかった。</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>俺がかつて率いていた『英雄の軍団』にも、お前みたいな奴がいた。</t>
+          <t>……あいつも、最後まで哲学を曲げなかった。</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="F130" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>balgas_17</t>
+          <t>narr_17</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>……あいつも、最後まで哲学を曲げなかった。</t>
+          <t>（彼は深く息を吐き、酒を飲み干す。）</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>……あいつも、最後まで哲学を曲げなかった。</t>
+          <t>（彼は深く息を吐き、酒を飲み干す。）</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="F131" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>narr_17</t>
+          <t>balgas_18</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>（彼は深く息を吐き、酒を飲み干す。）</t>
+          <t>……行け。次はもっと厳しい戦いが待ってる。</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>（彼は深く息を吐き、酒を飲み干す。）</t>
+          <t>……行け。次はもっと厳しい戦いが待ってる。</t>
         </is>
       </c>
     </row>
@@ -2508,53 +2518,58 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>balgas_18</t>
+          <t>balgas_19</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>……行け。次はもっと厳しい戦いが待ってる。</t>
+          <t>だが、お前なら……大丈夫だ。</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>……行け。次はもっと厳しい戦いが待ってる。</t>
+          <t>だが、お前なら……大丈夫だ。</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>balgas_19</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>だが、お前なら……大丈夫だ。</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>だが、お前なら……大丈夫だ。</t>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>final_choice</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>final_choice</t>
+          <t>final_thanks</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>c_final_thanks</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>……ありがとう</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>……ありがとう</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>final_thanks</t>
+          <t>final_again</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -2564,198 +2579,188 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>c_final_thanks</t>
+          <t>c_final_again</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>……ありがとう</t>
+          <t>次も教えてくれるか？</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>……ありがとう</t>
+          <t>次も教えてくれるか？</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
+          <t>final_nod</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>c_final_nod</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>final_thanks</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>balgas_r7</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>ハッ、礼はいらねえ。生き残って、俺を超えてみせろ。</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>ハッ、礼はいらねえ。生き残って、俺を超えてみせろ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
           <t>final_again</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>c_final_again</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>次も教えてくれるか？</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>次も教えてくれるか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="B137" t="inlineStr">
+    </row>
+    <row r="141">
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>balgas_r8</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>……ああ。必要なら、いつでも来い。</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>……ああ。必要なら、いつでも来い。</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>final_nod</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>c_final_nod</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>final_thanks</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>balgas_r7</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>ハッ、礼はいらねえ。生き残って、俺を超えてみせろ。</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>ハッ、礼はいらねえ。生き残って、俺を超えてみせろ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="B140" t="inlineStr">
+    </row>
+    <row r="144">
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>balgas_r9</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>……よし。じゃあ行け。</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>……よし。じゃあ行け。</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>final_again</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>balgas_r8</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>……ああ。必要なら、いつでも来い。</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>……ああ。必要なら、いつでも来い。</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="B143" t="inlineStr">
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>final_nod</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>balgas_r9</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>……よし。じゃあ行け。</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>……よし。じゃあ行け。</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>complete_quest(09_balgas_training)</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="D148" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>complete_quest(09_balgas_training)</t>
+          <t>mod_flag(chitsii.arena.rel.balgas, +20)</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -2765,58 +2770,36 @@
       </c>
     </row>
     <row r="149">
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.balgas, +20)</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>sys_title</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>【システム】『戦士の心得』を獲得しました。筋力+3、器用+3、PV+3 の加護を得た！</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>【システム】『戦士の心得』を獲得しました。筋力+3、器用+3、PV+3 の加護を得た！</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>sys_title</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>【システム】バルガスの哲学を学びました。</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>【システム】バルガスの哲学を学びました。</t>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.GrantBalgasTrainingBonus();</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="D151" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] TODO: バフ付与処理 - 永続的な戦闘力向上");</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="D152" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_balgas_training.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_balgas_training.xlsx
@@ -2150,7 +2150,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>EClass.pc.Pick(ThingGen.Create("whetstone"));</t>
+          <t>EClass.pc.Pick(ThingGen.Create("stone"));</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>EClass.pc.Pick(ThingGen.Create("steel"));</t>
+          <t>EClass.pc.Pick(ThingGen.Create("ingot"));</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>for(int i=0; i&lt;12; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;5; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+          <t>for(int i=0; i&lt;12; i++) { EClass.pc.Pick(ThingGen.Create("money")); } for(int i=0; i&lt;5; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_balgas_training.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_balgas_training.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:K149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1657,16 +1657,26 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>scene4_transmission</t>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>sukutsu_is_quest_battle_result,1</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>scene4_transmission</t>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>sukutsu_quest_battle,4</t>
         </is>
       </c>
     </row>
@@ -1678,182 +1688,142 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("balgas_training_battle", "sukutsu_arena_master");</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>scene4_transmission</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sacred_Triumph_Special");             var data = SoundManager.current.GetData("BGM/Emotional_Sacred_Triumph_Special");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sacred_Triumph_Special");             }</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="F83" t="inlineStr">
+    <row r="86">
+      <c r="F86" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>narr_11</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>（息を切らし、膝をつくあなた。）</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>（息を切らし、膝をつくあなた。）</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="F84" t="inlineStr">
+    <row r="87">
+      <c r="F87" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>narr_12</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>（バルガスは一歩も動いていないが、その口元には満足げな笑みが浮かんでいた。）</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>（バルガスは一歩も動いていないが、その口元には満足げな笑みが浮かんでいた。）</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="F85" t="inlineStr">
+    <row r="88">
+      <c r="F88" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>narr_13</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>（彼はあなたの肩を、岩のような拳で一つ叩いた。）</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>（彼はあなたの肩を、岩のような拳で一つ叩いた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="D89" t="inlineStr">
         <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="D90" t="inlineStr">
+        <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>balgas_11</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>……ハッ！ 少しは『意志』が剣に乗るようになったじゃねえか。</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>……ハッ！ 少しは『意志』が剣に乗るようになったじゃねえか。</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>balgas_12</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>いいか、戦いってのはな、ただの殺し合いじゃねえ。</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>いいか、戦いってのはな、ただの殺し合いじゃねえ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>balgas_13</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>自分の命を、何のために『消費』するかを決める聖域だ。</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>自分の命を、何のために『消費』するかを決める聖域だ。</t>
         </is>
       </c>
     </row>
@@ -1865,141 +1835,141 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>balgas_14</t>
+          <t>balgas_11</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>その哲学を忘れるな。そうすれば、どんな異次元の闇もお前を呑み込むことはできねえ。</t>
+          <t>……ハッ！ 少しは『意志』が剣に乗るようになったじゃねえか。</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>その哲学を忘れるな。そうすれば、どんな異次元の闇もお前を呑み込むことはできねえ。</t>
+          <t>……ハッ！ 少しは『意志』が剣に乗るようになったじゃねえか。</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="F94" t="inlineStr">
         <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>balgas_12</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>いいか、戦いってのはな、ただの殺し合いじゃねえ。</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>いいか、戦いってのはな、ただの殺し合いじゃねえ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>balgas_13</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>自分の命を、何のために『消費』するかを決める聖域だ。</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>自分の命を、何のために『消費』するかを決める聖域だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>balgas_14</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>その哲学を忘れるな。そうすれば、どんな異次元の闇もお前を呑み込むことはできねえ。</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>その哲学を忘れるな。そうすれば、どんな異次元の闇もお前を呑み込むことはできねえ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="F97" t="inlineStr">
+        <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>narr_14</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>（ロビーに戻ると、リリィが台帳を開いて待っている。）</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>（ロビーに戻ると、リリィが台帳を開いて待っている。）</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="D95" t="inlineStr">
+    <row r="98">
+      <c r="D98" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="D96" t="inlineStr">
+    <row r="99">
+      <c r="D99" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="D97" t="inlineStr">
+    <row r="100">
+      <c r="D100" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>lily_4</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>……素晴らしい。バルガスさんの説教を聞いて生き残るなんて、あなたは本当の意味で『闘技場の鴉』になる資格を得たようです。</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>……素晴らしい。バルガスさんの説教を聞いて生き残るなんて、あなたは本当の意味で『闘技場の鴉』になる資格を得たようです。</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>lily_5</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>カラスは死肉を喰らい、戦場を飛び回る。……今のあなたに、相応しい二つ名ですね。</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>カラスは死肉を喰らい、戦場を飛び回る。……今のあなたに、相応しい二つ名ですね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>narr_15</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>（彼女は台帳に何かを書き込む。）</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>（彼女は台帳に何かを書き込む。）</t>
         </is>
       </c>
     </row>
@@ -2011,256 +1981,296 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
+          <t>lily_4</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>……素晴らしい。バルガスさんの説教を聞いて生き残るなんて、あなたは本当の意味で『闘技場の鴉』になる資格を得たようです。</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>……素晴らしい。バルガスさんの説教を聞いて生き残るなんて、あなたは本当の意味で『闘技場の鴉』になる資格を得たようです。</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>lily_5</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>カラスは死肉を喰らい、戦場を飛び回る。……今のあなたに、相応しい二つ名ですね。</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>カラスは死肉を喰らい、戦場を飛び回る。……今のあなたに、相応しい二つ名ですね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>narr_15</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>（彼女は台帳に何かを書き込む。）</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>（彼女は台帳に何かを書き込む。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
           <t>lily_6</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>観客からの報酬として、小さなコイン12枚とプラチナコイン5枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>観客からの報酬として、小さなコイン12枚とプラチナコイン5枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>reward_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>reward_stone</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>c_reward_stone</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>研磨石を頼む</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>研磨石を頼む</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>reward_steel</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>c_reward_steel</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>鋼鉄の欠片が欲しい</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>鋼鉄の欠片が欲しい</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
+          <t>reward_choice</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>reward_stone</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>c_reward_stone</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>研磨石を頼む</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>研磨石を頼む</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>reward_steel</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>c_reward_steel</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>鋼鉄の欠片が欲しい</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>鋼鉄の欠片が欲しい</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="inlineStr">
+        <is>
           <t>reward_bone</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>c_reward_bone</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>骨を選ぶ</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>骨を選ぶ</t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>reward_stone</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="F107" t="inlineStr">
+    <row r="110">
+      <c r="F110" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>lily_rew1</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>『研磨石×1』、記録いたしました。バルガスさんの哲学を継ぐ、良い選択ですね。</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>『研磨石×1』、記録いたしました。バルガスさんの哲学を継ぐ、良い選択ですね。</t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="D108" t="inlineStr">
+    <row r="111">
+      <c r="D111" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>EClass.pc.Pick(ThingGen.Create("whetstone"));</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="B109" t="inlineStr">
+    <row r="112">
+      <c r="B112" t="inlineStr">
         <is>
           <t>reward_end</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>reward_steel</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="F111" t="inlineStr">
+    <row r="114">
+      <c r="F114" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>lily_rew2</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>『鋼鉄の欠片×1』、記録いたしました。</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>『鋼鉄の欠片×1』、記録いたしました。</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="D112" t="inlineStr">
+    <row r="115">
+      <c r="D115" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>EClass.pc.Pick(ThingGen.Create("steel"));</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="B113" t="inlineStr">
+    <row r="116">
+      <c r="B116" t="inlineStr">
         <is>
           <t>reward_end</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>reward_bone</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="F115" t="inlineStr">
+    <row r="118">
+      <c r="F118" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>lily_rew3</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>『骨×1』ですね。……地味ですが、実用的です。</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="J118" t="inlineStr">
         <is>
           <t>『骨×1』ですね。……地味ですが、実用的です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("bone"));</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>reward_end</t>
         </is>
       </c>
     </row>
@@ -2272,241 +2282,201 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
+          <t>EClass.pc.Pick(ThingGen.Create("bone"));</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>reward_end</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>reward_end</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
           <t>for(int i=0; i&lt;12; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;5; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>lily_7</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>記録完了です。</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>記録完了です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>lily_8</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>……それと、今回の戦いで、あなたは『闘技場の鴉』としての称号を獲得しました。</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>……それと、今回の戦いで、あなたは『闘技場の鴉』としての称号を獲得しました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>lily_9</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>死肉を喰らい、戦場を飛び回る……ふふ、あなたらしいですね。</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>死肉を喰らい、戦場を飛び回る……ふふ、あなたらしいですね。</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="F123" t="inlineStr">
         <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>lily_7</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>記録完了です。</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>記録完了です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>lily_8</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>……それと、今回の戦いで、あなたは『闘技場の鴉』としての称号を獲得しました。</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>……それと、今回の戦いで、あなたは『闘技場の鴉』としての称号を獲得しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>lily_9</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>死肉を喰らい、戦場を飛び回る……ふふ、あなたらしいですね。</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>死肉を喰らい、戦場を飛び回る……ふふ、あなたらしいですね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="F126" t="inlineStr">
+        <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>narr_16</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>（バルガスが酒瓶を傾けながら、あなたに背を向けたまま言う。）</t>
         </is>
       </c>
-      <c r="J123" t="inlineStr">
+      <c r="J126" t="inlineStr">
         <is>
           <t>（バルガスが酒瓶を傾けながら、あなたに背を向けたまま言う。）</t>
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="D124" t="inlineStr">
+    <row r="127">
+      <c r="D127" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="D125" t="inlineStr">
+    <row r="128">
+      <c r="D128" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="D126" t="inlineStr">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="D129" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>balgas_15</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>……お前は、カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>……お前は、カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>balgas_16</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>俺がかつて率いていた『英雄の軍団』にも、お前みたいな奴がいた。</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>俺がかつて率いていた『英雄の軍団』にも、お前みたいな奴がいた。</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>balgas_17</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>……あいつも、最後まで哲学を曲げなかった。</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>……あいつも、最後まで哲学を曲げなかった。</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="F130" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>narr_17</t>
+          <t>balgas_15</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>（彼は深く息を吐き、酒を飲み干す。）</t>
+          <t>……お前は、カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>（彼は深く息を吐き、酒を飲み干す。）</t>
+          <t>……お前は、カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="F131" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>balgas_18</t>
+          <t>narr_17</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>……行け。次はもっと厳しい戦いが待ってる。</t>
+          <t>（彼は深く息を吐き、酒を飲み干す。）</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>……行け。次はもっと厳しい戦いが待ってる。</t>
+          <t>（彼は深く息を吐き、酒を飲み干す。）</t>
         </is>
       </c>
     </row>
@@ -2518,58 +2488,53 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
+          <t>balgas_18</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>……行け。次はもっと厳しい戦いが待ってる。</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>……行け。次はもっと厳しい戦いが待ってる。</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
           <t>balgas_19</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr">
+      <c r="I133" t="inlineStr">
         <is>
           <t>だが、お前なら……大丈夫だ。</t>
         </is>
       </c>
-      <c r="J132" t="inlineStr">
+      <c r="J133" t="inlineStr">
         <is>
           <t>だが、お前なら……大丈夫だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>final_choice</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>final_thanks</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>c_final_thanks</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>……ありがとう</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>……ありがとう</t>
+          <t>final_choice</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>final_again</t>
+          <t>final_thanks</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -2579,227 +2544,203 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>c_final_again</t>
+          <t>c_final_thanks</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>次も教えてくれるか？</t>
+          <t>……ありがとう</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>次も教えてくれるか？</t>
+          <t>……ありがとう</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
+          <t>final_again</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>c_final_again</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>次も教えてくれるか？</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>次も教えてくれるか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="inlineStr">
+        <is>
           <t>final_nod</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>c_final_nod</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr">
+      <c r="I137" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
       </c>
-      <c r="J136" t="inlineStr">
+      <c r="J137" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>final_thanks</t>
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
+    <row r="139">
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
         <is>
           <t>balgas_r7</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>ハッ、礼はいらねえ。生き残って、俺を超えてみせろ。</t>
         </is>
       </c>
-      <c r="J138" t="inlineStr">
+      <c r="J139" t="inlineStr">
         <is>
           <t>ハッ、礼はいらねえ。生き残って、俺を超えてみせろ。</t>
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="B139" t="inlineStr">
+    <row r="140">
+      <c r="B140" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>final_again</t>
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
+    <row r="142">
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
         <is>
           <t>balgas_r8</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr">
+      <c r="I142" t="inlineStr">
         <is>
           <t>……ああ。必要なら、いつでも来い。</t>
         </is>
       </c>
-      <c r="J141" t="inlineStr">
+      <c r="J142" t="inlineStr">
         <is>
           <t>……ああ。必要なら、いつでも来い。</t>
         </is>
       </c>
     </row>
-    <row r="142">
-      <c r="B142" t="inlineStr">
+    <row r="143">
+      <c r="B143" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>final_nod</t>
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
+    <row r="145">
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
         <is>
           <t>balgas_r9</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr">
+      <c r="I145" t="inlineStr">
         <is>
           <t>……よし。じゃあ行け。</t>
         </is>
       </c>
-      <c r="J144" t="inlineStr">
+      <c r="J145" t="inlineStr">
         <is>
           <t>……よし。じゃあ行け。</t>
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="B145" t="inlineStr">
+    <row r="146">
+      <c r="B146" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>complete_quest(09_balgas_training)</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="D148" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>mod_flag(chitsii.arena.rel.balgas, +20)</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>Elin_SukutsuArena.ArenaManager.CompleteBalgasTrainingQuest();</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>sys_title</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>【システム】『戦士の心得』を獲得しました。筋力+3、器用+3、PV+3 の加護を得た！</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>【システム】『戦士の心得』を獲得しました。筋力+3、器用+3、PV+3 の加護を得た！</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.GrantBalgasTrainingBonus();</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="D151" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_balgas_training.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_balgas_training.xlsx
@@ -2308,7 +2308,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>for(int i=0; i&lt;12; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;5; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+          <t>for(int i=0; i&lt;12; i++) { EClass.pc.Pick(ThingGen.Create("medal")); } for(int i=0; i&lt;5; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_balgas_training.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_balgas_training.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K149"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,40 +439,45 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>if2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>actor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>text_JP</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>text_EN</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
@@ -486,444 +491,474 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>narr_0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>（バルガスに昇格試験を申し出ようとしたあなたを、彼が呼び止めた。）</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>（バルガスに昇格試験を申し出ようとしたあなたを、彼が呼び止めた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>balgas_0a</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>……おい、ちょっと待て。</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>……おい、ちょっと待て。</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>balgas_0b</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ランクCに挑む前に、お前に言っておきたいことがある。</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ランクCに挑む前に、お前に言っておきたいことがある。</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>（ロビーの隅、いつもの酒瓶を横に置き、バルガスが自慢の大剣を丁寧に研いでいる。）</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>（ロビーの隅、いつもの酒瓶を横に置き、バルガスが自慢の大剣を丁寧に研いでいる。）</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="F9" t="inlineStr">
+    <row r="15">
+      <c r="G15" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>（研石が剣を研ぐ規則的な音が、静まり返ったロビーに響く。）</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>（研石が剣を研ぐ規則的な音が、静まり返ったロビーに響く。）</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="F10" t="inlineStr">
+    <row r="16">
+      <c r="G16" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>（あなたが近づくと、彼は研石を止め、濁った、しかし鋭い眼光を向けた。）</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>（あなたが近づくと、彼は研石を止め、濁った、しかし鋭い眼光を向けた。）</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
+    <row r="17">
+      <c r="B17" t="inlineStr">
         <is>
           <t>scene1_question</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>scene1_question</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="D13" t="inlineStr">
+    <row r="19">
+      <c r="E19" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="D14" t="inlineStr">
+    <row r="20">
+      <c r="E20" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" t="inlineStr">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+    <row r="22">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>balgas_1</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>……おい、銅貨稼ぎ。最近の戦いぶり、悪かねえ。</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>……おい、銅貨稼ぎ。最近の戦いぶり、悪かねえ。</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+    <row r="23">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>balgas_2</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>だがな、今のままじゃランクCの壁……あそこに巣食う『本当のバケモノ』どもに、鼻歌交じりで解体されるのがオチだ。</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>だがな、今のままじゃランクCの壁……あそこに巣食う『本当のバケモノ』どもに、鼻歌交じりで解体されるのがオチだ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="F18" t="inlineStr">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>だがな、今のままじゃランクCの壁……あそこで待ってる『歴戦の猛者』どもに、鼻歌交じりで解体されるのがオチだ。</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>だがな、今のままじゃランクCの壁……あそこで待ってる『歴戦の猛者』どもに、鼻歌交じりで解体されるのがオチだ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="G24" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>narr_4</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>（彼は研石を置き、腕を組む。）</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>（彼は研石を置き、腕を組む。）</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+    <row r="25">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>balgas_3</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>お前には『技術』がある。だが、『哲学』がねえ。</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>お前には『技術』がある。だが、『哲学』がねえ。</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+    <row r="26">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>balgas_4</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>……剣を振る時、お前は何を考えてる？ 敵のHPか？ 次に飲むポーションの種類か？</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>……剣を振る時、お前は何を考えてる？ 敵のHPか？ 次に飲むポーションの種類か？</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+    <row r="27">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>balgas_5</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>そんなもんじゃねえ。戦士が最後に頼るのは、己の魂に刻んだ一文字の『理（ことわり）』だ。</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>そんなもんじゃねえ。戦士が最後に頼るのは、己の魂に刻んだ一文字の『理（ことわり）』だ。</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
+    <row r="28">
+      <c r="B28" t="inlineStr">
         <is>
           <t>react1_philosophy</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>c1_philosophy</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>哲学……？</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>哲学……？</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
+    <row r="29">
+      <c r="B29" t="inlineStr">
         <is>
           <t>react1_survive</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>c1_survive</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>俺の哲学は、生き残ることだ</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>俺の哲学は、生き残ることだ</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>react1_silent</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>c1_silent</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>react1_philosophy</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>balgas_r1</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>ああ、哲学だ。お前が何のために剣を振るのか、その答えだ。</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>ああ、哲学だ。お前が何のために剣を振るのか、その答えだ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>scene2_invitation</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>react1_survive</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>balgas_r2</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>……ハッ、悪くねえ。だが、それだけじゃまだ足りねえ。</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>……ハッ、悪くねえ。だが、それだけじゃまだ足りねえ。</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>scene2_invitation</t>
+          <t>react1_silent</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>c1_silent</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>react1_silent</t>
+          <t>react1_philosophy</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>balgas_r3</t>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>……まあ、黙って聞いててくれ。続きがある。</t>
+          <t>balgas_r1</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>……まあ、黙って聞いててくれ。続きがある。</t>
+          <t>ああ、哲学だ。お前が何のために剣を振るのか、その答えだ。</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ああ、哲学だ。お前が何のために剣を振るのか、その答えだ。</t>
         </is>
       </c>
     </row>
@@ -937,427 +972,427 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>react1_survive</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>balgas_r2</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>……ハッ、悪くねえ。だが、それだけじゃまだ足りねえ。</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>……ハッ、悪くねえ。だが、それだけじゃまだ足りねえ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
           <t>scene2_invitation</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="D35" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>react1_silent</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>balgas_r3</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>……まあ、黙って聞いててくれ。続きがある。</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>……まあ、黙って聞いててくれ。続きがある。</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>scene2_invitation</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>scene2_invitation</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="F36" t="inlineStr">
+    <row r="42">
+      <c r="G42" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>narr_5</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>（バルガスは重い腰を上げ、闘技場の中心ではなく、さらに地下深くへと続く「封印された練習場」を指差した。）</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>（バルガスは重い腰を上げ、闘技場の中心ではなく、さらに地下深くへと続く「封印された練習場」を指差した。）</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
+    <row r="43">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>balgas_6</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>来い。今日はリリィの事務仕事じゃねえ。俺が直接、そのなまくらな魂を叩き直してやる。</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>来い。今日はリリィの事務仕事じゃねえ。俺が直接、そのなまくらな魂を叩き直してやる。</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
+    <row r="44">
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>balgas_7</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>……死んでも文句は言うなよ。地獄に落ちてから、俺の愚痴を肴に飲め。</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>……死んでも文句は言うなよ。地獄に落ちてから、俺の愚痴を肴に飲め。</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="F39" t="inlineStr">
+    <row r="45">
+      <c r="G45" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>narr_6</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>（リリィが受付から顔を上げ、クスクスと笑う。）</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>（リリィが受付から顔を上げ、クスクスと笑う。）</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="D40" t="inlineStr">
+    <row r="46">
+      <c r="E46" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="D41" t="inlineStr">
+    <row r="47">
+      <c r="E47" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="D42" t="inlineStr">
+    <row r="48">
+      <c r="E48" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="F43" t="inlineStr">
+    <row r="49">
+      <c r="G49" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>lily_1</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>……ふふ、バルガスさんがここまでやるなんて珍しい。</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>……ふふ、バルガスさんがここまでやるなんて珍しい。</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="F44" t="inlineStr">
+    <row r="50">
+      <c r="G50" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>lily_2</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>お客様、これは特別な『授業料』が必要かもしれませんね？</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>お客様、これは特別な『授業料』が必要かもしれませんね？</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="F45" t="inlineStr">
+    <row r="51">
+      <c r="G51" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>lily_3</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>あ、ご心配なく。お代は、あなたがそこで流す『美しい血の雫』で十分ですから。</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>あ、ご心配なく。お代は、あなたがそこで流す『美しい血の雫』で十分ですから。</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
+    <row r="52">
+      <c r="B52" t="inlineStr">
         <is>
           <t>react2_accept</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>c2_accept</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>……分かった。行こう</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>……分かった。行こう</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="B47" t="inlineStr">
+    <row r="53">
+      <c r="B53" t="inlineStr">
         <is>
           <t>react2_death</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>c2_death</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>本当に死なないよな？</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>本当に死なないよな？</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>react2_nod</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>c2_nod</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>react2_accept</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>balgas_r4</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>ハッ、良い返事だ。ついてこい。</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>ハッ、良い返事だ。ついてこい。</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>scene3_combat</t>
+          <t>react2_nod</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>c2_nod</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>react2_death</t>
+          <t>react2_accept</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>balgas_r5</t>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>……知らねえ。だが、死ぬ気で来い。</t>
+          <t>balgas_r4</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>……知らねえ。だが、死ぬ気で来い。</t>
+          <t>ハッ、良い返事だ。ついてこい。</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>ハッ、良い返事だ。ついてこい。</t>
         </is>
       </c>
     </row>
@@ -1371,65 +1406,65 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>react2_nod</t>
+          <t>react2_death</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>balgas_r6</t>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>……よし。じゃあ行くぞ。</t>
+          <t>balgas_r5</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>……よし。じゃあ行くぞ。</t>
+          <t>……知らねえ。だが、死ぬ気で来い。</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>……知らねえ。だが、死ぬ気で来い。</t>
         </is>
       </c>
     </row>
@@ -1443,1304 +1478,1115 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>react2_nod</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>balgas_r6</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>……よし。じゃあ行くぞ。</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>……よし。じゃあ行くぞ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
           <t>scene3_combat</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="D68" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>scene3_combat</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Balgas_Training");             var data = SoundManager.current.GetData("BGM/Battle_Balgas_Training");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Balgas_Training");             }</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="F69" t="inlineStr">
+    <row r="75">
+      <c r="G75" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>narr_7</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>（地下の練習場は、虚空から漏れる微かな光に照らされている。）</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>（地下の練習場は、虚空から漏れる微かな光に照らされている。）</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="F70" t="inlineStr">
+    <row r="76">
+      <c r="G76" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>narr_8</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>（バルガスは武器を持たず、無造作に構えた。）</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>（バルガスは武器を持たず、無造作に構えた。）</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="F71" t="inlineStr">
+    <row r="77">
+      <c r="G77" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>narr_9</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>（その背後からは、歴戦の猛者だけが放つ、物理的な「圧」が空間を歪ませている。）</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>（その背後からは、歴戦の猛者だけが放つ、物理的な「圧」が空間を歪ませている。）</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="D72" t="inlineStr">
+    <row r="78">
+      <c r="E78" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="D73" t="inlineStr">
+    <row r="79">
+      <c r="E79" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="D74" t="inlineStr">
+    <row r="80">
+      <c r="E80" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="D75" t="inlineStr">
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="E81" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
+    <row r="82">
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>balgas_8</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>さあ、構えろ。ルールは一つ……俺の足を一歩でも動かしてみせろ。</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>さあ、構えろ。ルールは一つ……俺の足を一歩でも動かしてみせろ。</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
+    <row r="83">
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>balgas_9</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>魔法でも、薬でも、卑怯な手でも何でも使え。</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>魔法でも、薬でも、卑怯な手でも何でも使え。</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
+    <row r="84">
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>balgas_10</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>戦士の哲学とは、『手段』を尽くした先にある『目的』の純粋さだ！</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>戦士の哲学とは、『手段』を尽くした先にある『目的』の純粋さだ！</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="F79" t="inlineStr">
+    <row r="85">
+      <c r="G85" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>narr_10</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>（バルガスとの特別な手合わせが始まる……！）</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>（バルガスとの特別な手合わせが始まる……！）</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="D80" t="inlineStr">
+    <row r="86">
+      <c r="E86" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>sukutsu_is_quest_battle_result,1</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="D81" t="inlineStr">
+    <row r="87">
+      <c r="E87" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>sukutsu_quest_battle,4</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="D82" t="inlineStr">
+    <row r="88">
+      <c r="E88" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("balgas_training_battle", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="D83" t="inlineStr">
+    <row r="89">
+      <c r="E89" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>scene4_transmission</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="D85" t="inlineStr">
+    <row r="91">
+      <c r="E91" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sacred_Triumph_Special");             var data = SoundManager.current.GetData("BGM/Emotional_Sacred_Triumph_Special");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sacred_Triumph_Special");             }</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="F86" t="inlineStr">
+    <row r="92">
+      <c r="G92" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>narr_11</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>（息を切らし、膝をつくあなた。）</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>（息を切らし、膝をつくあなた。）</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="F87" t="inlineStr">
+    <row r="93">
+      <c r="G93" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>narr_12</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>（バルガスは一歩も動いていないが、その口元には満足げな笑みが浮かんでいた。）</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>（バルガスは一歩も動いていないが、その口元には満足げな笑みが浮かんでいた。）</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="F88" t="inlineStr">
+    <row r="94">
+      <c r="G94" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>narr_13</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>（彼はあなたの肩を、岩のような拳で一つ叩いた。）</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>（彼はあなたの肩を、岩のような拳で一つ叩いた。）</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="D89" t="inlineStr">
+    <row r="95">
+      <c r="E95" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="D90" t="inlineStr">
+    <row r="96">
+      <c r="E96" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="D91" t="inlineStr">
+    <row r="97">
+      <c r="E97" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="D92" t="inlineStr">
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="E98" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
+    <row r="99">
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t>balgas_11</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>……ハッ！ 少しは『意志』が剣に乗るようになったじゃねえか。</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>……ハッ！ 少しは『意志』が剣に乗るようになったじゃねえか。</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
+    <row r="100">
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t>balgas_12</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>いいか、戦いってのはな、ただの殺し合いじゃねえ。</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>いいか、戦いってのはな、ただの殺し合いじゃねえ。</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
+    <row r="101">
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>balgas_13</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>自分の命を、何のために『消費』するかを決める聖域だ。</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>自分の命を、何のために『消費』するかを決める聖域だ。</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
+    <row r="102">
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
         <is>
           <t>balgas_14</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>その哲学を忘れるな。そうすれば、どんな異次元の闇もお前を呑み込むことはできねえ。</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>その哲学を忘れるな。そうすれば、どんな異次元の闇もお前を呑み込むことはできねえ。</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="F97" t="inlineStr">
+    <row r="103">
+      <c r="G103" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>narr_14</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>（ロビーに戻ると、リリィが台帳を開いて待っている。）</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>（ロビーに戻ると、リリィが台帳を開いて待っている。）</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="D98" t="inlineStr">
+    <row r="104">
+      <c r="E104" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="D99" t="inlineStr">
+    <row r="105">
+      <c r="E105" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="D100" t="inlineStr">
+    <row r="106">
+      <c r="E106" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="F101" t="inlineStr">
+    <row r="107">
+      <c r="G107" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>lily_4</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>……素晴らしい。バルガスさんの説教を聞いて生き残るなんて、あなたは本当の意味で『闘技場の鴉』になる資格を得たようです。</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>……素晴らしい。バルガスさんの説教を聞いて生き残るなんて、あなたは本当の意味で『闘技場の鴉』になる資格を得たようです。</t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="F102" t="inlineStr">
+    <row r="108">
+      <c r="G108" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>lily_5</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>カラスは死肉を喰らい、戦場を飛び回る。……今のあなたに、相応しい二つ名ですね。</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>カラスは死肉を喰らい、戦場を飛び回る。……今のあなたに、相応しい二つ名ですね。</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="F103" t="inlineStr">
+    <row r="109">
+      <c r="G109" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>narr_15</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="J109" t="inlineStr">
         <is>
           <t>（彼女は台帳に何かを書き込む。）</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>（彼女は台帳に何かを書き込む。）</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="F104" t="inlineStr">
+    <row r="110">
+      <c r="G110" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>lily_6</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>観客からの報酬として、小さなコイン12枚とプラチナコイン5枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>観客からの報酬として、小さなコイン12枚とプラチナコイン5枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>reward_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>reward_stone</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>報酬として、プラチナコイン5枚を記録いたしました。</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>報酬として、プラチナコイン5枚を記録いたしました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>for(int i=0; i&lt;5; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>lily_8</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>……それと、今回の戦いで、あなたは『闘技場の鴉』としての称号を獲得しました。</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>……それと、今回の戦いで、あなたは『闘技場の鴉』としての称号を獲得しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>lily_9</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>死肉を喰らい、戦場を飛び回る……ふふ、あなたらしいですね。</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>死肉を喰らい、戦場を飛び回る……ふふ、あなたらしいですね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>narr_16</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>（バルガスが酒瓶を傾けながら、あなたに背を向けたまま言う。）</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>（バルガスが酒瓶を傾けながら、あなたに背を向けたまま言う。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>balgas_15</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>……お前は、カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>……お前は、カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>narr_17</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>（彼は深く息を吐き、酒を飲み干す。）</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>（彼は深く息を吐き、酒を飲み干す。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>balgas_18</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>……行け。次はもっと厳しい戦いが待ってる。</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>……行け。次はもっと厳しい戦いが待ってる。</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>balgas_19</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>だが、お前なら……大丈夫だ。</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>だが、お前なら……大丈夫だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>final_choice</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>final_thanks</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>c_reward_stone</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>研磨石を頼む</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>研磨石を頼む</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>reward_steel</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>c_final_thanks</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>……ありがとう</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>……ありがとう</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>final_again</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>c_reward_steel</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>鋼鉄の欠片が欲しい</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>鋼鉄の欠片が欲しい</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>reward_bone</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>c_final_again</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>次も教えてくれるか？</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>次も教えてくれるか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>final_nod</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>c_reward_bone</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>骨を選ぶ</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>骨を選ぶ</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>reward_stone</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>lily_rew1</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>『研磨石×1』、記録いたしました。バルガスさんの哲学を継ぐ、良い選択ですね。</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>『研磨石×1』、記録いたしました。バルガスさんの哲学を継ぐ、良い選択ですね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("whetstone"));</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>reward_steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>lily_rew2</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>『鋼鉄の欠片×1』、記録いたしました。</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>『鋼鉄の欠片×1』、記録いたしました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("steel"));</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>reward_bone</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>lily_rew3</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>『骨×1』ですね。……地味ですが、実用的です。</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>『骨×1』ですね。……地味ですが、実用的です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("bone"));</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>for(int i=0; i&lt;12; i++) { EClass.pc.Pick(ThingGen.Create("medal")); } for(int i=0; i&lt;5; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>lily_7</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>記録完了です。</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>記録完了です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>lily_8</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>……それと、今回の戦いで、あなたは『闘技場の鴉』としての称号を獲得しました。</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>……それと、今回の戦いで、あなたは『闘技場の鴉』としての称号を獲得しました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>lily_9</t>
-        </is>
-      </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>死肉を喰らい、戦場を飛び回る……ふふ、あなたらしいですね。</t>
+          <t>c_final_nod</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>死肉を喰らい、戦場を飛び回る……ふふ、あなたらしいですね。</t>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>narr_16</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>（バルガスが酒瓶を傾けながら、あなたに背を向けたまま言う。）</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>（バルガスが酒瓶を傾けながら、あなたに背を向けたまま言う。）</t>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>final_thanks</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>balgas_r7</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>ハッ、礼はいらねえ。生き残って、俺を超えてみせろ。</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>ハッ、礼はいらねえ。生き残って、俺を超えてみせろ。</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>final_again</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>balgas_15</t>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>……お前は、カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
+          <t>balgas_r8</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>……お前は、カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
+          <t>……ああ。必要なら、いつでも来い。</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>……ああ。必要なら、いつでも来い。</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>narr_17</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>（彼は深く息を吐き、酒を飲み干す。）</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>（彼は深く息を吐き、酒を飲み干す。）</t>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>balgas_18</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>……行け。次はもっと厳しい戦いが待ってる。</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>……行け。次はもっと厳しい戦いが待ってる。</t>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>final_nod</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>balgas_19</t>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>だが、お前なら……大丈夫だ。</t>
+          <t>balgas_r9</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>だが、お前なら……大丈夫だ。</t>
+          <t>……よし。じゃあ行け。</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>……よし。じゃあ行け。</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>final_choice</t>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>final_thanks</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>c_final_thanks</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>……ありがとう</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>……ありがとう</t>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>final_again</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>c_final_again</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>次も教えてくれるか？</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>次も教えてくれるか？</t>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.CompleteBalgasTrainingQuest();</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>final_nod</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>c_final_nod</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>final_thanks</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>balgas_r7</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>ハッ、礼はいらねえ。生き残って、俺を超えてみせろ。</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>ハッ、礼はいらねえ。生き残って、俺を超えてみせろ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>final_again</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>balgas_r8</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>……ああ。必要なら、いつでも来い。</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>……ああ。必要なら、いつでも来い。</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>final_nod</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>balgas_r9</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>……よし。じゃあ行け。</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>……よし。じゃあ行け。</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.CompleteBalgasTrainingQuest();</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="D149" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>end</t>
         </is>
